--- a/data/RV-GJNZ Transport analysis.xlsx
+++ b/data/RV-GJNZ Transport analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6590" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6590" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="1" r:id="rId1"/>
@@ -8911,8 +8911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="AI60" sqref="AI60"/>
+    <sheetView topLeftCell="AH2" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9529,7 +9529,7 @@
         <v>2040</v>
       </c>
       <c r="B8">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C8">
         <v>0.42</v>
@@ -9643,7 +9643,7 @@
         <v>2045</v>
       </c>
       <c r="B9">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C9">
         <v>0.44</v>
@@ -9757,7 +9757,7 @@
         <v>2050</v>
       </c>
       <c r="B10">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C10">
         <v>0.45</v>
@@ -9871,7 +9871,7 @@
         <v>2055</v>
       </c>
       <c r="B11">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C11">
         <v>0.46</v>
@@ -9984,7 +9984,7 @@
         <v>2060</v>
       </c>
       <c r="B12">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C12">
         <v>0.47</v>
@@ -10097,7 +10097,7 @@
         <v>2065</v>
       </c>
       <c r="B13">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C13">
         <v>0.48</v>
@@ -10210,7 +10210,7 @@
         <v>2070</v>
       </c>
       <c r="B14">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C14">
         <v>0.48</v>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="M22" s="29">
         <f t="shared" si="19"/>
-        <v>315.31426926369858</v>
+        <v>296.76637107171632</v>
       </c>
       <c r="N22" s="19">
         <f t="shared" si="1"/>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="X22" s="23">
         <f t="shared" si="20"/>
-        <v>75.905320633561644</v>
+        <v>71.440301772763902</v>
       </c>
       <c r="Y22" s="23">
         <f t="shared" si="21"/>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="AI22" s="40">
         <f t="shared" si="10"/>
-        <v>75.707134417808206</v>
+        <v>71.253773569701849</v>
       </c>
       <c r="AJ22" s="23">
         <f t="shared" si="11"/>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="M23" s="29">
         <f t="shared" si="19"/>
-        <v>580.09105351027392</v>
+        <v>545.96805036261082</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="1"/>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="X23" s="23">
         <f t="shared" si="20"/>
-        <v>210.8701335616438</v>
+        <v>198.46600805801771</v>
       </c>
       <c r="Y23" s="23">
         <f t="shared" si="21"/>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="AI23" s="40">
         <f t="shared" si="10"/>
-        <v>72.337968749999987</v>
+        <v>68.082794117647055</v>
       </c>
       <c r="AJ23" s="23">
         <f t="shared" si="11"/>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="M24" s="29">
         <f t="shared" si="19"/>
-        <v>334.73651840753422</v>
+        <v>315.0461349717969</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="1"/>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="X24" s="23">
         <f t="shared" si="20"/>
-        <v>236.03978296232873</v>
+        <v>222.15508984689765</v>
       </c>
       <c r="Y24" s="23">
         <f t="shared" si="21"/>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="AI24" s="40">
         <f t="shared" si="10"/>
-        <v>97.705804366438358</v>
+        <v>91.95840410958904</v>
       </c>
       <c r="AJ24" s="23">
         <f t="shared" si="11"/>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="M25" s="29">
         <f t="shared" si="19"/>
-        <v>79.869044948630133</v>
+        <v>70.994706621004568</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="1"/>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="X25" s="23">
         <f t="shared" si="20"/>
-        <v>279.04619178082186</v>
+        <v>248.04105936073057</v>
       </c>
       <c r="Y25" s="23">
         <f t="shared" si="21"/>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="AI25" s="40">
         <f t="shared" si="10"/>
-        <v>98.696735445205476</v>
+        <v>87.730431506849314</v>
       </c>
       <c r="AJ25" s="23">
         <f t="shared" si="11"/>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="M26" s="29">
         <f t="shared" si="19"/>
-        <v>201.15900898972598</v>
+        <v>178.80800799086754</v>
       </c>
       <c r="N26" s="19">
         <f t="shared" si="1"/>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="X26" s="23">
         <f t="shared" si="20"/>
-        <v>356.73518835616431</v>
+        <v>317.09794520547945</v>
       </c>
       <c r="Y26" s="23">
         <f t="shared" si="21"/>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AI26" s="40">
         <f t="shared" si="10"/>
-        <v>95.327569777397244</v>
+        <v>84.735617579908677</v>
       </c>
       <c r="AJ26" s="23">
         <f t="shared" si="11"/>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="M27" s="29">
         <f t="shared" si="19"/>
-        <v>266.75864640410953</v>
+        <v>237.11879680365297</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="1"/>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="X27" s="23">
         <f t="shared" si="20"/>
-        <v>322.84534546232874</v>
+        <v>286.97364041095892</v>
       </c>
       <c r="Y27" s="23">
         <f t="shared" si="21"/>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="AI27" s="40">
         <f t="shared" si="10"/>
-        <v>73.328899828767106</v>
+        <v>65.181244292237437</v>
       </c>
       <c r="AJ27" s="23">
         <f t="shared" si="11"/>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="M28" s="30">
         <f t="shared" si="19"/>
-        <v>352.37509160958899</v>
+        <v>313.22230365296804</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" si="1"/>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="X28" s="25">
         <f t="shared" si="20"/>
-        <v>228.31052054794515</v>
+        <v>202.94268493150682</v>
       </c>
       <c r="Y28" s="25">
         <f t="shared" si="21"/>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="AI28" s="41">
         <f t="shared" si="10"/>
-        <v>73.725272260273968</v>
+        <v>65.533575342465753</v>
       </c>
       <c r="AJ28" s="25">
         <f t="shared" si="11"/>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="M54" s="28">
         <f t="shared" si="24"/>
-        <v>656.62548457595017</v>
+        <v>618.00045607148263</v>
       </c>
       <c r="N54" s="28">
         <f t="shared" si="25"/>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="X54" s="28">
         <f t="shared" si="33"/>
-        <v>268.51523821764556</v>
+        <v>252.72022420484288</v>
       </c>
       <c r="Y54" s="28">
         <f t="shared" si="34"/>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="AI54" s="28">
         <f t="shared" si="43"/>
-        <v>269.11658870651962</v>
+        <v>253.28620113554791</v>
       </c>
       <c r="AJ54" s="28">
         <f t="shared" si="44"/>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="M55" s="28">
         <f t="shared" si="24"/>
-        <v>1235.2814043146402</v>
+        <v>1162.6177922961319</v>
       </c>
       <c r="N55" s="28">
         <f t="shared" si="25"/>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="X55" s="28">
         <f t="shared" si="33"/>
-        <v>477.84916303767119</v>
+        <v>449.74038874133765</v>
       </c>
       <c r="Y55" s="28">
         <f t="shared" si="34"/>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="AI55" s="28">
         <f t="shared" si="43"/>
-        <v>339.93296098458899</v>
+        <v>319.93690445608377</v>
       </c>
       <c r="AJ55" s="28">
         <f t="shared" si="44"/>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="M56" s="28">
         <f t="shared" si="24"/>
-        <v>1516.3391861853593</v>
+        <v>1427.1427634685735</v>
       </c>
       <c r="N56" s="28">
         <f t="shared" si="25"/>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="X56" s="28">
         <f t="shared" si="33"/>
-        <v>660.20426387671228</v>
+        <v>621.36871894278806</v>
       </c>
       <c r="Y56" s="28">
         <f t="shared" si="34"/>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="AI56" s="28">
         <f t="shared" si="43"/>
-        <v>383.81654199400674</v>
+        <v>361.23909834730046</v>
       </c>
       <c r="AJ56" s="28">
         <f t="shared" si="44"/>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="M57" s="28">
         <f t="shared" si="24"/>
-        <v>1533.24011029238</v>
+        <v>1362.8800980376714</v>
       </c>
       <c r="N57" s="28">
         <f t="shared" si="25"/>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="X57" s="28">
         <f t="shared" si="33"/>
-        <v>876.15331558946912</v>
+        <v>778.80294719063932</v>
       </c>
       <c r="Y57" s="28">
         <f t="shared" si="34"/>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="AI57" s="28">
         <f t="shared" si="43"/>
-        <v>419.05048380308216</v>
+        <v>372.48931893607306</v>
       </c>
       <c r="AJ57" s="28">
         <f t="shared" si="44"/>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="M58" s="28">
         <f t="shared" si="24"/>
-        <v>1511.3781888326196</v>
+        <v>1343.4472789623287</v>
       </c>
       <c r="N58" s="28">
         <f t="shared" si="25"/>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="X58" s="28">
         <f t="shared" si="33"/>
-        <v>1158.5643129413525</v>
+        <v>1029.8349448367578</v>
       </c>
       <c r="Y58" s="28">
         <f t="shared" si="34"/>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="AI58" s="28">
         <f t="shared" si="43"/>
-        <v>439.62498760530815</v>
+        <v>390.77776676027401</v>
       </c>
       <c r="AJ58" s="28">
         <f t="shared" si="44"/>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="M59" s="28">
         <f t="shared" si="24"/>
-        <v>1462.7730194190924</v>
+        <v>1300.2426839280822</v>
       </c>
       <c r="N59" s="28">
         <f t="shared" si="25"/>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="X59" s="28">
         <f t="shared" si="33"/>
-        <v>1405.6278077825341</v>
+        <v>1249.4469402511415</v>
       </c>
       <c r="Y59" s="28">
         <f t="shared" si="34"/>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="AI59" s="28">
         <f t="shared" si="43"/>
-        <v>437.23902375385268</v>
+        <v>388.65691000342468</v>
       </c>
       <c r="AJ59" s="28">
         <f t="shared" si="44"/>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="M60" s="28">
         <f t="shared" si="24"/>
-        <v>1234.9639099970034</v>
+        <v>1097.7456977751142</v>
       </c>
       <c r="N60" s="28">
         <f t="shared" si="25"/>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="X60" s="28">
         <f t="shared" si="33"/>
-        <v>1423.0463942851025</v>
+        <v>1264.9301282534245</v>
       </c>
       <c r="Y60" s="28">
         <f t="shared" si="34"/>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="AI60" s="28">
         <f t="shared" si="43"/>
-        <v>438.69371057748288</v>
+        <v>389.94996495776257</v>
       </c>
       <c r="AJ60" s="28">
         <f>($B$18*AJ44)/(C14*$B$19)</f>
@@ -14245,15 +14245,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="A1:M45"/>
+      <selection activeCell="B34" sqref="B34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="10" width="8.7265625" style="45"/>
+    <col min="13" max="13" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -14297,36 +14299,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="45">
-        <v>1.509624042636986</v>
+        <v>1.7678980540215261</v>
       </c>
       <c r="C2" s="45">
-        <v>8.7553804306565897E-2</v>
+        <v>8.9716193604629194E-2</v>
       </c>
       <c r="D2" s="45">
-        <v>2.0053092855968689E-3</v>
+        <v>2.0548309246966731E-3</v>
       </c>
       <c r="E2" s="45">
-        <v>3.2964049017979451</v>
+        <v>3.3778197992294521</v>
       </c>
       <c r="F2" s="45">
-        <v>5.9187282766438351E-2</v>
+        <v>6.1061014524657523E-2</v>
       </c>
       <c r="G2" s="45">
-        <v>1.2354400193493152E-2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="45">
         <v>0</v>
       </c>
       <c r="I2" s="45">
-        <v>0.29305698832420085</v>
+        <v>0.30029492508904115</v>
       </c>
       <c r="J2" s="45">
-        <v>0.26100025706329716</v>
+        <v>0.37845037274178078</v>
       </c>
       <c r="K2" t="s">
         <v>124</v>
@@ -14338,36 +14340,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="45">
-        <v>25.362902981735157</v>
+        <v>40.673757059075335</v>
       </c>
       <c r="C3" s="45">
-        <v>3.8042636858732874E-2</v>
+        <v>5.422929784417807E-2</v>
       </c>
       <c r="D3" s="45">
-        <v>6.3421310429941291E-3</v>
+        <v>9.0406164368101762E-3</v>
       </c>
       <c r="E3" s="45">
-        <v>10.415769055821919</v>
+        <v>14.847450663527397</v>
       </c>
       <c r="F3" s="45">
-        <v>2.4525550541445202</v>
+        <v>1.0424261995787671</v>
       </c>
       <c r="G3" s="45">
-        <v>2.8502771602054797</v>
+        <v>4.5295168937328762</v>
       </c>
       <c r="H3" s="45">
-        <v>0.35704791253660845</v>
+        <v>0.24675293704109588</v>
       </c>
       <c r="I3" s="45">
-        <v>10.260302979908674</v>
+        <v>7.6873350194063921</v>
       </c>
       <c r="J3" s="45">
-        <v>1.7240303650082663E-2</v>
+        <v>2.4998440292619859E-2</v>
       </c>
       <c r="K3" t="s">
         <v>124</v>
@@ -14379,36 +14381,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="45">
-        <v>52.706685302811813</v>
+        <v>77.691176623715748</v>
       </c>
       <c r="C4" s="45">
-        <v>9.2415553647260257E-2</v>
+        <v>0.11471546664383561</v>
       </c>
       <c r="D4" s="45">
-        <v>5.756786356027397E-2</v>
+        <v>7.1458384349706458E-2</v>
       </c>
       <c r="E4" s="45">
-        <v>18.028867922945203</v>
+        <v>22.379055358732874</v>
       </c>
       <c r="F4" s="45">
-        <v>2.1880084830061644</v>
+        <v>1.1660579319452054</v>
       </c>
       <c r="G4" s="45">
-        <v>5.1107679972260271</v>
+        <v>6.6413522140410963</v>
       </c>
       <c r="H4" s="45">
-        <v>0.22044539806565899</v>
+        <v>0.15780791470479452</v>
       </c>
       <c r="I4" s="45">
-        <v>8.5253262358904109</v>
+        <v>6.2911175335616436</v>
       </c>
       <c r="J4" s="45">
-        <v>1.4686008627775153E-2</v>
+        <v>2.1294712510273969E-2</v>
       </c>
       <c r="K4" t="s">
         <v>124</v>
@@ -14420,36 +14422,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="45">
-        <v>77.188816290194652</v>
+        <v>84.54326684717465</v>
       </c>
       <c r="C5" s="45">
-        <v>0.15500936678938354</v>
+        <v>0.14297153604452054</v>
       </c>
       <c r="D5" s="45">
-        <v>8.3882553641095897E-2</v>
+        <v>7.7368365253033256E-2</v>
       </c>
       <c r="E5" s="45">
-        <v>21.720284377568493</v>
+        <v>20.033587557363013</v>
       </c>
       <c r="F5" s="45">
-        <v>1.8449801704294517</v>
+        <v>1.3813896335958902</v>
       </c>
       <c r="G5" s="45">
-        <v>4.1023225419520539</v>
+        <v>5.5639590955479452</v>
       </c>
       <c r="H5" s="45">
-        <v>0.26062170772319326</v>
+        <v>0.23572902697602738</v>
       </c>
       <c r="I5" s="45">
-        <v>6.763854196894977</v>
+        <v>6.0918743246575335</v>
       </c>
       <c r="J5" s="45">
-        <v>1.1944642219414266E-2</v>
+        <v>1.7319731218150683E-2</v>
       </c>
       <c r="K5" t="s">
         <v>124</v>
@@ -14461,36 +14463,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="45">
-        <v>69.038564630136989</v>
+        <v>76.945308629734086</v>
       </c>
       <c r="C6" s="45">
-        <v>0.16209065465264189</v>
+        <v>0.1535561899559687</v>
       </c>
       <c r="D6" s="45">
-        <v>8.2717626389823884E-2</v>
+        <v>7.8362422011545987E-2</v>
       </c>
       <c r="E6" s="45">
-        <v>19.874245839897259</v>
+        <v>18.827822620719175</v>
       </c>
       <c r="F6" s="45">
-        <v>1.6646793886284244</v>
+        <v>1.513609963808219</v>
       </c>
       <c r="G6" s="45">
-        <v>3.7392718195205479</v>
+        <v>4.9192672631506849</v>
       </c>
       <c r="H6" s="45">
-        <v>0.24208678610533774</v>
+        <v>0.24932618686643834</v>
       </c>
       <c r="I6" s="45">
-        <v>6.0523205839657521</v>
+        <v>6.0514267200913228</v>
       </c>
       <c r="J6" s="45">
-        <v>1.0910137509211148E-2</v>
+        <v>1.5819699388356163E-2</v>
       </c>
       <c r="K6" t="s">
         <v>124</v>
@@ -14502,36 +14504,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>133</v>
       </c>
       <c r="B7" s="45">
-        <v>59.93664561056751</v>
+        <v>68.219146234085414</v>
       </c>
       <c r="C7" s="45">
-        <v>0.23982694137608965</v>
+        <v>0.22097402717932749</v>
       </c>
       <c r="D7" s="45">
-        <v>0.49550449713111538</v>
+        <v>0.45655309153620349</v>
       </c>
       <c r="E7" s="45">
-        <v>19.215474858732875</v>
+        <v>17.704899522260277</v>
       </c>
       <c r="F7" s="45">
-        <v>1.8297621643921231</v>
+        <v>1.8385338863013698</v>
       </c>
       <c r="G7" s="45">
-        <v>4.1180823098287673</v>
+        <v>4.9916765789383559</v>
       </c>
       <c r="H7" s="45">
-        <v>0.26306008157770433</v>
+        <v>0.28659629385616436</v>
       </c>
       <c r="I7" s="45">
-        <v>6.567047004872145</v>
+        <v>6.8117571264840189</v>
       </c>
       <c r="J7" s="45">
-        <v>1.2108778676499765E-2</v>
+        <v>1.7557729080924657E-2</v>
       </c>
       <c r="K7" t="s">
         <v>124</v>
@@ -14543,36 +14545,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="45">
-        <v>65.251982758094641</v>
+        <v>77.308852097502012</v>
       </c>
       <c r="C8" s="45">
-        <v>0.27694418473515986</v>
+        <v>0.25354447036529676</v>
       </c>
       <c r="D8" s="45">
-        <v>0.56128148289628177</v>
+        <v>0.51385722020547941</v>
       </c>
       <c r="E8" s="45">
-        <v>21.887817791952056</v>
+        <v>20.038476150684929</v>
       </c>
       <c r="F8" s="45">
-        <v>2.072073986161644</v>
+        <v>2.2898435368150687</v>
       </c>
       <c r="G8" s="45">
-        <v>4.6422293583561647</v>
+        <v>5.3116019808219175</v>
       </c>
       <c r="H8" s="45">
-        <v>0.28834918942843651</v>
+        <v>0.33483164779109592</v>
       </c>
       <c r="I8" s="45">
-        <v>7.2942744997716886</v>
+        <v>7.9384061257990863</v>
       </c>
       <c r="J8" s="45">
-        <v>1.3935907971185643E-2</v>
+        <v>2.0207066558219178E-2</v>
       </c>
       <c r="K8" t="s">
         <v>124</v>
@@ -14584,36 +14586,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="45">
-        <v>72.297610829701128</v>
+        <v>80.430836808219183</v>
       </c>
       <c r="C9" s="45">
-        <v>0.42785612140559848</v>
+        <v>0.38944522009082783</v>
       </c>
       <c r="D9" s="45">
-        <v>0.87621591412133071</v>
+        <v>0.79755297385714286</v>
       </c>
       <c r="E9" s="45">
-        <v>25.267817639554792</v>
+        <v>22.999378214041098</v>
       </c>
       <c r="F9" s="45">
-        <v>2.5267371059948629</v>
+        <v>2.770785990308219</v>
       </c>
       <c r="G9" s="45">
-        <v>5.6895298818493147</v>
+        <v>6.4723390092465749</v>
       </c>
       <c r="H9" s="45">
-        <v>0.3464185707250827</v>
+        <v>0.39999527553082187</v>
       </c>
       <c r="I9" s="45">
-        <v>8.6721883875570782</v>
+        <v>9.3353635068493137</v>
       </c>
       <c r="J9" s="45">
-        <v>1.7442355180444024E-2</v>
+        <v>2.5291415011643829E-2</v>
       </c>
       <c r="K9" t="s">
         <v>124</v>
@@ -14625,36 +14627,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="45">
-        <v>71.607747329660512</v>
+        <v>78.947699252283101</v>
       </c>
       <c r="C10" s="45">
-        <v>0.4999791250291461</v>
+        <v>0.43139488754007577</v>
       </c>
       <c r="D10" s="45">
-        <v>0.88376828118199602</v>
+        <v>0.7625390187475537</v>
       </c>
       <c r="E10" s="45">
-        <v>26.341986928938354</v>
+        <v>22.728655843321917</v>
       </c>
       <c r="F10" s="45">
-        <v>2.6033137229784242</v>
+        <v>2.6870879876712328</v>
       </c>
       <c r="G10" s="45">
-        <v>5.8799471979452047</v>
+        <v>6.3398977674657528</v>
       </c>
       <c r="H10" s="45">
-        <v>0.35576749290269249</v>
+        <v>0.38941847356849313</v>
       </c>
       <c r="I10" s="45">
-        <v>8.647983244406392</v>
+        <v>8.7773063563926943</v>
       </c>
       <c r="J10" s="45">
-        <v>1.8376744415257443E-2</v>
+        <v>2.6646279402123288E-2</v>
       </c>
       <c r="K10" t="s">
         <v>124</v>
@@ -14666,36 +14668,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="45">
-        <v>55.792694115544954</v>
+        <v>62.853216877853889</v>
       </c>
       <c r="C11" s="45">
-        <v>0.55668724329195207</v>
+        <v>0.49080089648544517</v>
       </c>
       <c r="D11" s="45">
-        <v>2.1099334876320937</v>
+        <v>1.8602233857534245</v>
       </c>
       <c r="E11" s="45">
-        <v>19.312321856164381</v>
+        <v>17.026574167808221</v>
       </c>
       <c r="F11" s="45">
-        <v>2.3151947247893832</v>
+        <v>2.4316814477054791</v>
       </c>
       <c r="G11" s="45">
-        <v>5.1991431945547939</v>
+        <v>5.7278987332191784</v>
       </c>
       <c r="H11" s="45">
-        <v>0.31185817502125651</v>
+        <v>0.34883944952054791</v>
       </c>
       <c r="I11" s="45">
-        <v>7.3938150680821915</v>
+        <v>7.6248667242009125</v>
       </c>
       <c r="J11" s="45">
-        <v>1.6542868588427025E-2</v>
+        <v>2.3987159453219182E-2</v>
       </c>
       <c r="K11" t="s">
         <v>124</v>
@@ -14707,36 +14709,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="45">
-        <v>42.040052830479446</v>
+        <v>61.611426091324198</v>
       </c>
       <c r="C12" s="45">
-        <v>0.50157826289811636</v>
+        <v>0.55131177249999996</v>
       </c>
       <c r="D12" s="45">
-        <v>4.4379850618590995</v>
+        <v>4.8780354703326809</v>
       </c>
       <c r="E12" s="45">
-        <v>11.660286003852738</v>
+        <v>12.816477961729451</v>
       </c>
       <c r="F12" s="45">
-        <v>1.7299738192705478</v>
+        <v>2.5326454334589039</v>
       </c>
       <c r="G12" s="45">
-        <v>4.2834330333561645</v>
+        <v>5.8836466739726019</v>
       </c>
       <c r="H12" s="45">
-        <v>0.25704506158951351</v>
+        <v>0.35824457457534248</v>
       </c>
       <c r="I12" s="45">
-        <v>5.9581365046118719</v>
+        <v>7.6208853833333334</v>
       </c>
       <c r="J12" s="45">
-        <v>1.3803404767737365E-2</v>
+        <v>2.0014936913219174E-2</v>
       </c>
       <c r="K12" t="s">
         <v>124</v>
@@ -14748,36 +14750,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="45">
-        <v>1.5499192640239723</v>
+        <v>1.7678980540215261</v>
       </c>
       <c r="C13" s="45">
-        <v>8.9890816162730272E-2</v>
+        <v>8.9716193604629194E-2</v>
       </c>
       <c r="D13" s="45">
-        <v>2.0588354187475537E-3</v>
+        <v>2.0548309246966731E-3</v>
       </c>
       <c r="E13" s="45">
-        <v>3.384386369178082</v>
+        <v>3.3778197992294521</v>
       </c>
       <c r="F13" s="45">
-        <v>6.0761356966438355E-2</v>
+        <v>6.1061014524657523E-2</v>
       </c>
       <c r="G13" s="45">
-        <v>1.2681275325342465E-2</v>
+        <v>1.2660241161643836E-2</v>
       </c>
       <c r="H13" s="45">
         <v>0</v>
       </c>
       <c r="I13" s="45">
-        <v>0.30087768064611869</v>
+        <v>0.30029492508904115</v>
       </c>
       <c r="J13" s="45">
-        <v>0.26797950629638645</v>
+        <v>0.37550580122260274</v>
       </c>
       <c r="K13" t="s">
         <v>124</v>
@@ -14789,36 +14791,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="45">
-        <v>25.151504351598177</v>
+        <v>40.284915703767119</v>
       </c>
       <c r="C14" s="45">
-        <v>3.7725538913527396E-2</v>
+        <v>5.3710941796874995E-2</v>
       </c>
       <c r="D14" s="45">
-        <v>6.2892572256164382E-3</v>
+        <v>8.9541936568297443E-3</v>
       </c>
       <c r="E14" s="45">
-        <v>10.328937068493149</v>
+        <v>14.705549333047943</v>
       </c>
       <c r="F14" s="45">
-        <v>2.4346407642791092</v>
+        <v>1.0335220892773973</v>
       </c>
       <c r="G14" s="45">
-        <v>2.8260085974657536</v>
+        <v>4.4867350959589043</v>
       </c>
       <c r="H14" s="45">
-        <v>0.35408906067548424</v>
+        <v>0.24440007028767124</v>
       </c>
       <c r="I14" s="45">
-        <v>10.174728814429223</v>
+        <v>7.6138739954337886</v>
       </c>
       <c r="J14" s="45">
-        <v>1.7095681837921591E-2</v>
+        <v>3.4931985290753427E-2</v>
       </c>
       <c r="K14" t="s">
         <v>124</v>
@@ -14830,36 +14832,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="45">
-        <v>51.751719806777203</v>
+        <v>76.723631518407529</v>
       </c>
       <c r="C15" s="45">
-        <v>9.0741981158675808E-2</v>
+        <v>0.11328676423515983</v>
       </c>
       <c r="D15" s="45">
-        <v>5.6524792519373777E-2</v>
+        <v>7.0568516916046958E-2</v>
       </c>
       <c r="E15" s="45">
-        <v>17.702257039383561</v>
+        <v>22.100405539383562</v>
       </c>
       <c r="F15" s="45">
-        <v>2.1530582645835619</v>
+        <v>1.1539479614178083</v>
       </c>
       <c r="G15" s="45">
-        <v>5.0178318744520549</v>
+        <v>6.5601751400684929</v>
       </c>
       <c r="H15" s="45">
-        <v>0.21646855245630614</v>
+        <v>0.1558509447359589</v>
       </c>
       <c r="I15" s="45">
-        <v>8.3708783967123281</v>
+        <v>6.2128648073059356</v>
       </c>
       <c r="J15" s="45">
-        <v>1.441937299350496E-2</v>
+        <v>2.1838852584246574E-2</v>
       </c>
       <c r="K15" t="s">
         <v>124</v>
@@ -14871,24 +14873,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
       <c r="B16" s="45">
-        <v>95.710340375991336</v>
+        <v>115.12181444820203</v>
       </c>
       <c r="C16" s="45">
-        <v>0.19220416301712329</v>
+        <v>0.19468386894863013</v>
       </c>
       <c r="D16" s="45">
-        <v>0.10400993801565558</v>
+        <v>0.10535171532093933</v>
       </c>
       <c r="E16" s="45">
-        <v>26.932185479452052</v>
+        <v>27.279539853595892</v>
       </c>
       <c r="F16" s="45">
-        <v>2.4117152170366434</v>
+        <v>1.8870815817123288</v>
       </c>
       <c r="G16" s="45">
         <v>0</v>
@@ -14897,10 +14899,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="45">
-        <v>8.3862646936758001</v>
+        <v>8.2944366520547934</v>
       </c>
       <c r="J16" s="45">
-        <v>1.4794477993859238E-2</v>
+        <v>2.1451993091095894E-2</v>
       </c>
       <c r="K16" t="s">
         <v>124</v>
@@ -14912,24 +14914,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="45">
-        <v>86.157572848972606</v>
+        <v>103.83931800362612</v>
       </c>
       <c r="C17" s="45">
-        <v>0.2022828192074364</v>
+        <v>0.20722728216731895</v>
       </c>
       <c r="D17" s="45">
-        <v>0.10322897107632095</v>
+        <v>0.1057521647260274</v>
       </c>
       <c r="E17" s="45">
-        <v>24.802344280821913</v>
+        <v>25.408529852739722</v>
       </c>
       <c r="F17" s="45">
-        <v>2.0863034393547948</v>
+        <v>2.0513858820205479</v>
       </c>
       <c r="G17" s="45">
         <v>0</v>
@@ -14938,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="45">
-        <v>7.5520328494977171</v>
+        <v>8.1649549910958896</v>
       </c>
       <c r="J17" s="45">
-        <v>1.3621182793363251E-2</v>
+        <v>1.9750715050376712E-2</v>
       </c>
       <c r="K17" t="s">
         <v>124</v>
@@ -14953,24 +14955,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="45">
-        <v>122.50988513600782</v>
+        <v>147.53783971958097</v>
       </c>
       <c r="C18" s="45">
-        <v>0.49020675823318799</v>
+        <v>0.47790551999066</v>
       </c>
       <c r="D18" s="45">
-        <v>1.0128108369863014</v>
+        <v>0.98738864172211349</v>
       </c>
       <c r="E18" s="45">
-        <v>39.276147865582189</v>
+        <v>38.290369628424649</v>
       </c>
       <c r="F18" s="45">
-        <v>0.85542165011815074</v>
+        <v>0.69699238198972602</v>
       </c>
       <c r="G18" s="45">
         <v>0</v>
@@ -14979,10 +14981,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="45">
-        <v>13.351528775433788</v>
+        <v>14.65788775022831</v>
       </c>
       <c r="J18" s="45">
-        <v>8.7972264250118105E-3</v>
+        <v>1.2755978316267123E-2</v>
       </c>
       <c r="K18" t="s">
         <v>124</v>
@@ -14994,24 +14996,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="45">
-        <v>139.63653047353671</v>
+        <v>154.73689571676067</v>
       </c>
       <c r="C19" s="45">
-        <v>0.59265465026484021</v>
+        <v>0.50748425616894977</v>
       </c>
       <c r="D19" s="45">
-        <v>1.1993731480626224</v>
+        <v>1.0285026553033267</v>
       </c>
       <c r="E19" s="45">
-        <v>46.520382547945204</v>
+        <v>40.106680233732874</v>
       </c>
       <c r="F19" s="45">
-        <v>1.378079131047945E-6</v>
+        <v>0</v>
       </c>
       <c r="G19" s="45">
         <v>0</v>
@@ -15020,10 +15022,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="45">
-        <v>15.262167211164384</v>
+        <v>15.539560970319632</v>
       </c>
       <c r="J19" s="45">
-        <v>6.1881664006849314E-5</v>
+        <v>4.1153605524657529E-7</v>
       </c>
       <c r="K19" t="s">
         <v>124</v>
@@ -15035,21 +15037,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>135</v>
       </c>
       <c r="B20" s="45">
-        <v>111.05058311955167</v>
+        <v>120.87967453310502</v>
       </c>
       <c r="C20" s="45">
-        <v>0.65720134633561633</v>
+        <v>0.58530214463371044</v>
       </c>
       <c r="D20" s="45">
-        <v>1.1334348953424658</v>
+        <v>1.1237679379843444</v>
       </c>
       <c r="E20" s="45">
-        <v>22.487397156678078</v>
+        <v>27.696787899828767</v>
       </c>
       <c r="F20" s="45">
         <v>0</v>
@@ -15061,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="45">
-        <v>12.65727101089041</v>
+        <v>13.326992441095889</v>
       </c>
       <c r="J20" s="45">
         <v>0</v>
@@ -15076,21 +15078,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21" s="45">
-        <v>124.38787309708158</v>
+        <v>145.72042289840184</v>
       </c>
       <c r="C21" s="45">
-        <v>0.86851103162343346</v>
+        <v>0.79627342099970855</v>
       </c>
       <c r="D21" s="45">
-        <v>1.2767178668688843</v>
+        <v>1.2297420712720155</v>
       </c>
       <c r="E21" s="45">
-        <v>25.338371932363014</v>
+        <v>26.810631267123284</v>
       </c>
       <c r="F21" s="45">
         <v>0</v>
@@ -15102,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="45">
-        <v>14.031150708150683</v>
+        <v>15.107849734474884</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -15117,21 +15119,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="45">
-        <v>138.5070037790351</v>
+        <v>167.52531076940636</v>
       </c>
       <c r="C22" s="45">
-        <v>1.3820053321061641</v>
+        <v>1.3081677543236301</v>
       </c>
       <c r="D22" s="45">
-        <v>3.2750238178473579</v>
+        <v>3.2828425471819962</v>
       </c>
       <c r="E22" s="45">
-        <v>20.783392073630132</v>
+        <v>21.648937339897259</v>
       </c>
       <c r="F22" s="45">
         <v>0</v>
@@ -15143,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="45">
-        <v>16.935306332557076</v>
+        <v>18.707721773972604</v>
       </c>
       <c r="J22" s="45">
         <v>0</v>
@@ -15158,21 +15160,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>137</v>
       </c>
       <c r="B23" s="45">
-        <v>119.12894154452053</v>
+        <v>141.88741340296804</v>
       </c>
       <c r="C23" s="45">
-        <v>1.4213386897260274</v>
+        <v>1.269646960188356</v>
       </c>
       <c r="D23" s="45">
-        <v>9.8553135375733856</v>
+        <v>9.4321236798434445</v>
       </c>
       <c r="E23" s="45">
-        <v>24.624108810787671</v>
+        <v>23.892405302226024</v>
       </c>
       <c r="F23" s="45">
         <v>0</v>
@@ -15184,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="45">
-        <v>15.075696002831048</v>
+        <v>15.611154639726026</v>
       </c>
       <c r="J23" s="45">
         <v>0</v>
@@ -15199,36 +15201,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
       <c r="B24" s="45">
-        <v>3.0182955745749909</v>
+        <v>2.8564168997099704</v>
       </c>
       <c r="C24" s="45">
-        <v>9.1733526994378853E-2</v>
+        <v>9.2354098607557764E-2</v>
       </c>
       <c r="D24" s="45">
-        <v>2.054741774874364E-3</v>
+        <v>2.0860286513354207E-3</v>
       </c>
       <c r="E24" s="45">
-        <v>6.5952408878424658</v>
+        <v>5.4597924205479451</v>
       </c>
       <c r="F24" s="45">
-        <v>9.9410523823592167E-2</v>
+        <v>8.5121291214827047E-2</v>
       </c>
       <c r="G24" s="45">
-        <v>15.056643613207193</v>
+        <v>12.065167335921918</v>
       </c>
       <c r="H24" s="45">
-        <v>12.411332760432217</v>
+        <v>16.62401832636986</v>
       </c>
       <c r="I24" s="45">
-        <v>0.43975002108675793</v>
+        <v>0.10430901674429223</v>
       </c>
       <c r="J24" s="45">
-        <v>1.4375946976629665</v>
+        <v>1.6713836319349316</v>
       </c>
       <c r="K24" t="s">
         <v>125</v>
@@ -15240,36 +15242,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2025</v>
       </c>
       <c r="B25" s="45">
-        <v>28.045832381357371</v>
+        <v>43.173121846321564</v>
       </c>
       <c r="C25" s="45">
-        <v>0.12117614569738867</v>
+        <v>0.13792519970727637</v>
       </c>
       <c r="D25" s="45">
-        <v>8.3968728178684931E-3</v>
+        <v>1.1126645088145598E-2</v>
       </c>
       <c r="E25" s="45">
-        <v>17.011009943664384</v>
+        <v>20.307243084075338</v>
       </c>
       <c r="F25" s="45">
-        <v>2.4642743815518156</v>
+        <v>1.051278604366424</v>
       </c>
       <c r="G25" s="45">
-        <v>17.126732883329794</v>
+        <v>15.817610928439382</v>
       </c>
       <c r="H25" s="45">
-        <v>9.0518232717760974</v>
+        <v>12.25453865159589</v>
       </c>
       <c r="I25" s="45">
-        <v>10.689008479563926</v>
+        <v>7.7806044473538805</v>
       </c>
       <c r="J25" s="45">
-        <v>0.94784030549358766</v>
+        <v>1.020359670669863</v>
       </c>
       <c r="K25" t="s">
         <v>125</v>
@@ -15281,36 +15283,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2030</v>
       </c>
       <c r="B26" s="45">
-        <v>79.276421243045121</v>
+        <v>120.86429847003731</v>
       </c>
       <c r="C26" s="45">
-        <v>0.20012768315605023</v>
+        <v>0.23731564416141465</v>
       </c>
       <c r="D26" s="45">
-        <v>6.5964736378142458E-2</v>
+        <v>8.2585029437851967E-2</v>
       </c>
       <c r="E26" s="45">
-        <v>35.039877866609586</v>
+        <v>42.686298442808216</v>
       </c>
       <c r="F26" s="45">
-        <v>2.4119430168107021</v>
+        <v>1.2536717801374051</v>
       </c>
       <c r="G26" s="45">
-        <v>21.27813727218151</v>
+        <v>21.497922455923629</v>
       </c>
       <c r="H26" s="45">
-        <v>7.008772287376452</v>
+        <v>9.546713060794314</v>
       </c>
       <c r="I26" s="45">
-        <v>9.5262913506369866</v>
+        <v>6.3705304859657188</v>
       </c>
       <c r="J26" s="45">
-        <v>0.84927921580181154</v>
+        <v>0.90958705272636819</v>
       </c>
       <c r="K26" t="s">
         <v>125</v>
@@ -15322,36 +15324,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27" s="45">
-        <v>156.46456430759912</v>
+        <v>205.40676586176369</v>
       </c>
       <c r="C27" s="45">
-        <v>0.33512428162982871</v>
+        <v>0.3565556157897945</v>
       </c>
       <c r="D27" s="45">
-        <v>0.14984729001923836</v>
+        <v>0.15995339469088532</v>
       </c>
       <c r="E27" s="45">
-        <v>56.760162244178076</v>
+        <v>62.719886000171229</v>
       </c>
       <c r="F27" s="45">
-        <v>2.1235112749619067</v>
+        <v>1.5212518476813974</v>
       </c>
       <c r="G27" s="45">
-        <v>24.270883421038011</v>
+        <v>25.968896621313359</v>
       </c>
       <c r="H27" s="45">
-        <v>4.9562440982787432</v>
+        <v>7.0829690661301221</v>
       </c>
       <c r="I27" s="45">
-        <v>8.2074263852146121</v>
+        <v>6.1556628043082195</v>
       </c>
       <c r="J27" s="45">
-        <v>0.71409743461864905</v>
+        <v>0.80006205664828756</v>
       </c>
       <c r="K27" t="s">
         <v>125</v>
@@ -15363,36 +15365,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2040</v>
       </c>
       <c r="B28" s="45">
-        <v>216.47360306116437</v>
+        <v>269.37364870242544</v>
       </c>
       <c r="C28" s="45">
-        <v>0.47837063815851266</v>
+        <v>0.49131155630136913</v>
       </c>
       <c r="D28" s="45">
-        <v>0.23251548391978474</v>
+        <v>0.23828461897579256</v>
       </c>
       <c r="E28" s="45">
-        <v>73.335572098030823</v>
+        <v>79.465735999571791</v>
       </c>
       <c r="F28" s="45">
-        <v>1.993928334846097</v>
+        <v>1.7085520892092068</v>
       </c>
       <c r="G28" s="45">
-        <v>26.943298282641095</v>
+        <v>29.816566682213356</v>
       </c>
       <c r="H28" s="45">
-        <v>3.5552237181728397</v>
+        <v>5.0998935142826705</v>
       </c>
       <c r="I28" s="45">
-        <v>7.8295633131004569</v>
+        <v>6.0995910793196337</v>
       </c>
       <c r="J28" s="45">
-        <v>0.61813564817545841</v>
+        <v>0.69592934283821761</v>
       </c>
       <c r="K28" t="s">
         <v>125</v>
@@ -15404,36 +15406,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2045</v>
       </c>
       <c r="B29" s="45">
-        <v>264.95179211252452</v>
+        <v>336.13687889202254</v>
       </c>
       <c r="C29" s="45">
-        <v>0.63874754314352422</v>
+        <v>0.63082211240940222</v>
       </c>
       <c r="D29" s="45">
-        <v>0.72601467176530321</v>
+        <v>0.69278287958729934</v>
       </c>
       <c r="E29" s="45">
-        <v>89.254642054965743</v>
+        <v>93.792815722602725</v>
       </c>
       <c r="F29" s="45">
-        <v>2.3299332138531019</v>
+        <v>2.1755575366907709</v>
       </c>
       <c r="G29" s="45">
-        <v>30.170867033997254</v>
+        <v>33.90941560595445</v>
       </c>
       <c r="H29" s="45">
-        <v>2.8194431282479218</v>
+        <v>4.0006006101926195</v>
       </c>
       <c r="I29" s="45">
-        <v>8.6350579093625566</v>
+        <v>6.8460671946214608</v>
       </c>
       <c r="J29" s="45">
-        <v>0.60517777961140529</v>
+        <v>0.67673145634551213</v>
       </c>
       <c r="K29" t="s">
         <v>125</v>
@@ -15445,36 +15447,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2050</v>
       </c>
       <c r="B30" s="45">
-        <v>297.409045516812</v>
+        <v>375.16454787510077</v>
       </c>
       <c r="C30" s="45">
-        <v>0.87444479626484017</v>
+        <v>0.83178525736529674</v>
       </c>
       <c r="D30" s="45">
-        <v>1.2809540236185908</v>
+        <v>1.1975994833559687</v>
       </c>
       <c r="E30" s="45">
-        <v>100.72669079109589</v>
+        <v>98.983841209760271</v>
       </c>
       <c r="F30" s="45">
-        <v>2.6555218431149292</v>
+        <v>2.7318256348082413</v>
       </c>
       <c r="G30" s="45">
-        <v>34.05418112362397</v>
+        <v>38.459465331534588</v>
       </c>
       <c r="H30" s="45">
-        <v>1.9345904861236183</v>
+        <v>2.7330711106421193</v>
       </c>
       <c r="I30" s="45">
-        <v>9.6765705145280823</v>
+        <v>7.961678507727397</v>
       </c>
       <c r="J30" s="45">
-        <v>0.55893185226016306</v>
+        <v>0.62255742867318498</v>
       </c>
       <c r="K30" t="s">
         <v>125</v>
@@ -15486,36 +15488,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2055</v>
       </c>
       <c r="B31" s="45">
-        <v>324.18724631226644</v>
+        <v>365.69408613584471</v>
       </c>
       <c r="C31" s="45">
-        <v>1.2109660322885647</v>
+        <v>1.1133708675312686</v>
       </c>
       <c r="D31" s="45">
-        <v>2.0996020741796477</v>
+        <v>1.9236940728634049</v>
       </c>
       <c r="E31" s="45">
-        <v>107.96564050770547</v>
+        <v>99.604164065068488</v>
       </c>
       <c r="F31" s="45">
-        <v>3.2847421926372942</v>
+        <v>3.4072004596637719</v>
       </c>
       <c r="G31" s="45">
-        <v>38.206752697162329</v>
+        <v>43.390813022254108</v>
       </c>
       <c r="H31" s="45">
-        <v>0.36271805023894665</v>
+        <v>0.41625949867366435</v>
       </c>
       <c r="I31" s="45">
-        <v>11.389639560474885</v>
+        <v>9.3353635068493137</v>
       </c>
       <c r="J31" s="45">
-        <v>0.58156786502294999</v>
+        <v>0.63571290283571924</v>
       </c>
       <c r="K31" t="s">
         <v>125</v>
@@ -15527,36 +15529,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2060</v>
       </c>
       <c r="B32" s="45">
-        <v>317.93522164949371</v>
+        <v>369.4922148573059</v>
       </c>
       <c r="C32" s="45">
-        <v>1.5532570572354998</v>
+        <v>1.3993991101923637</v>
       </c>
       <c r="D32" s="45">
-        <v>2.8994878017205479</v>
+        <v>2.6088647263579254</v>
       </c>
       <c r="E32" s="45">
-        <v>112.58734305907534</v>
+        <v>102.29923235102738</v>
       </c>
       <c r="F32" s="45">
-        <v>3.4629819424368078</v>
+        <v>3.4520351410790751</v>
       </c>
       <c r="G32" s="45">
-        <v>36.001913976466092</v>
+        <v>44.608391231447889</v>
       </c>
       <c r="H32" s="45">
-        <v>0.37452670117751535</v>
+        <v>0.40887067102776364</v>
       </c>
       <c r="I32" s="45">
-        <v>11.790933352091324</v>
+        <v>8.7773063563926943</v>
       </c>
       <c r="J32" s="45">
-        <v>0.21963741828653996</v>
+        <v>0.29294798766719021</v>
       </c>
       <c r="K32" t="s">
         <v>125</v>
@@ -15568,36 +15570,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2065</v>
       </c>
       <c r="B33" s="45">
-        <v>313.69438130404995</v>
+        <v>359.67486247374427</v>
       </c>
       <c r="C33" s="45">
-        <v>1.9357554556806507</v>
+        <v>1.7266841923373286</v>
       </c>
       <c r="D33" s="45">
-        <v>4.9267036629628178</v>
+        <v>4.3907256900998037</v>
       </c>
       <c r="E33" s="45">
-        <v>112.02541907534246</v>
+        <v>100.49798389811643</v>
       </c>
       <c r="F33" s="45">
-        <v>3.5177173507983905</v>
+        <v>3.523159052781164</v>
       </c>
       <c r="G33" s="45">
-        <v>41.180659264349316</v>
+        <v>50.31661044339036</v>
       </c>
       <c r="H33" s="45">
-        <v>0.33706665251861129</v>
+        <v>0.37519590932820207</v>
       </c>
       <c r="I33" s="45">
-        <v>10.753895175098172</v>
+        <v>7.6248667242009125</v>
       </c>
       <c r="J33" s="45">
-        <v>9.0380932587810603E-2</v>
+        <v>8.790543257784246E-2</v>
       </c>
       <c r="K33" t="s">
         <v>125</v>
@@ -15609,36 +15611,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2070</v>
       </c>
       <c r="B34" s="45">
-        <v>297.05154160616439</v>
+        <v>356.85709489954337</v>
       </c>
       <c r="C34" s="45">
-        <v>2.2174923556506849</v>
+        <v>2.075436439922945</v>
       </c>
       <c r="D34" s="45">
-        <v>8.8691842276908019</v>
+        <v>8.8122080688962807</v>
       </c>
       <c r="E34" s="45">
-        <v>104.47023022046231</v>
+        <v>95.609562337585601</v>
       </c>
       <c r="F34" s="45">
-        <v>2.6320689256847256</v>
+        <v>3.8229236315568333</v>
       </c>
       <c r="G34" s="45">
-        <v>42.584266893972597</v>
+        <v>51.667696083356113</v>
       </c>
       <c r="H34" s="45">
-        <v>0.28058671920510159</v>
+        <v>0.38746273393968489</v>
       </c>
       <c r="I34" s="45">
-        <v>9.207009305251141</v>
+        <v>7.6208853833333334</v>
       </c>
       <c r="J34" s="45">
-        <v>8.4942267637942839E-2</v>
+        <v>6.8788754868904095E-2</v>
       </c>
       <c r="K34" t="s">
         <v>125</v>
@@ -15655,31 +15657,31 @@
         <v>2020</v>
       </c>
       <c r="B35" s="45">
-        <v>3.0869096243309841</v>
+        <v>2.8564168997099704</v>
       </c>
       <c r="C35" s="45">
-        <v>9.4149036993599444E-2</v>
+        <v>9.2354098607557764E-2</v>
       </c>
       <c r="D35" s="45">
-        <v>2.1091962802091977E-3</v>
+        <v>2.0860286513354207E-3</v>
       </c>
       <c r="E35" s="45">
-        <v>6.7451753662671221</v>
+        <v>5.4597924205479451</v>
       </c>
       <c r="F35" s="45">
-        <v>0.10173183784110851</v>
+        <v>8.5121291214827047E-2</v>
       </c>
       <c r="G35" s="45">
-        <v>15.207222064708903</v>
+        <v>12.065167335921918</v>
       </c>
       <c r="H35" s="45">
-        <v>12.411357909579595</v>
+        <v>16.62401832636986</v>
       </c>
       <c r="I35" s="45">
-        <v>0.44836662925114151</v>
+        <v>0.10430901674429223</v>
       </c>
       <c r="J35" s="45">
-        <v>1.4577737502578887</v>
+        <v>1.6713836319349316</v>
       </c>
       <c r="K35" t="s">
         <v>125</v>
@@ -15696,31 +15698,31 @@
         <v>2025</v>
       </c>
       <c r="B36" s="45">
-        <v>27.895424017670162</v>
+        <v>42.784280491013341</v>
       </c>
       <c r="C36" s="45">
-        <v>0.12304810368897685</v>
+        <v>0.1374068436599743</v>
       </c>
       <c r="D36" s="45">
-        <v>8.3984535058256368E-3</v>
+        <v>1.1040222308165076E-2</v>
       </c>
       <c r="E36" s="45">
-        <v>17.074112434760274</v>
+        <v>20.165341753595886</v>
       </c>
       <c r="F36" s="45">
-        <v>2.4466596080805458</v>
+        <v>1.0423970251424528</v>
       </c>
       <c r="G36" s="45">
-        <v>17.252513694170204</v>
+        <v>15.774839700596917</v>
       </c>
       <c r="H36" s="45">
-        <v>9.0493586553330196</v>
+        <v>12.252439463198629</v>
       </c>
       <c r="I36" s="45">
-        <v>10.612050922248857</v>
+        <v>7.7071434233812779</v>
       </c>
       <c r="J36" s="45">
-        <v>0.9651311283135463</v>
+        <v>1.0198605585041096</v>
       </c>
       <c r="K36" t="s">
         <v>125</v>
@@ -15737,31 +15739,31 @@
         <v>2030</v>
       </c>
       <c r="B37" s="45">
-        <v>78.178963612990884</v>
+        <v>119.50791200942088</v>
       </c>
       <c r="C37" s="45">
-        <v>0.20011807332665524</v>
+        <v>0.23542618082180367</v>
       </c>
       <c r="D37" s="45">
-        <v>6.4923246025199416E-2</v>
+        <v>8.1608739224212121E-2</v>
       </c>
       <c r="E37" s="45">
-        <v>34.776369474143834</v>
+        <v>42.265747292979455</v>
       </c>
       <c r="F37" s="45">
-        <v>2.3769169028531087</v>
+        <v>1.2413671764957561</v>
       </c>
       <c r="G37" s="45">
-        <v>21.310844128341095</v>
+        <v>21.374270165040411</v>
       </c>
       <c r="H37" s="45">
-        <v>7.0062465694396554</v>
+        <v>9.5467903534184604</v>
       </c>
       <c r="I37" s="45">
-        <v>9.3755729356255717</v>
+        <v>6.2922777597100108</v>
       </c>
       <c r="J37" s="45">
-        <v>0.86503759282132875</v>
+        <v>0.90905718205992991</v>
       </c>
       <c r="K37" t="s">
         <v>125</v>
@@ -15778,31 +15780,31 @@
         <v>2035</v>
       </c>
       <c r="B38" s="45">
-        <v>173.88863076334172</v>
+        <v>234.62892700217265</v>
       </c>
       <c r="C38" s="45">
-        <v>0.372310429011113</v>
+        <v>0.40656743168825343</v>
       </c>
       <c r="D38" s="45">
-        <v>0.16893318404085494</v>
+        <v>0.18696045454515056</v>
       </c>
       <c r="E38" s="45">
-        <v>61.708554953595758</v>
+        <v>69.545287146575333</v>
       </c>
       <c r="F38" s="45">
-        <v>2.652499154688658</v>
+        <v>1.9853641731261151</v>
       </c>
       <c r="G38" s="45">
-        <v>20.148512889996866</v>
+        <v>20.220260158124606</v>
       </c>
       <c r="H38" s="45">
-        <v>4.1919517887580309</v>
+        <v>5.9464393281377363</v>
       </c>
       <c r="I38" s="45">
-        <v>9.8252357908105026</v>
+        <v>8.3582233700502275</v>
       </c>
       <c r="J38" s="45">
-        <v>0.65390334400735839</v>
+        <v>0.70830212414260274</v>
       </c>
       <c r="K38" t="s">
         <v>125</v>
@@ -15819,31 +15821,31 @@
         <v>2040</v>
       </c>
       <c r="B39" s="45">
-        <v>250.12281935026027</v>
+        <v>323.77086856140824</v>
       </c>
       <c r="C39" s="45">
-        <v>0.55392398007289623</v>
+        <v>0.59261294936839526</v>
       </c>
       <c r="D39" s="45">
-        <v>0.2721117942557143</v>
+        <v>0.29268142154454008</v>
       </c>
       <c r="E39" s="45">
-        <v>83.150110237328761</v>
+        <v>92.871844377996567</v>
       </c>
       <c r="F39" s="45">
-        <v>2.3680602376015134</v>
+        <v>2.2201000804555315</v>
       </c>
       <c r="G39" s="45">
-        <v>19.106933183382875</v>
+        <v>19.187514905963305</v>
       </c>
       <c r="H39" s="45">
-        <v>2.9445041303975201</v>
+        <v>4.2512327982416709</v>
       </c>
       <c r="I39" s="45">
-        <v>9.4084633914954328</v>
+        <v>8.2131179410000001</v>
       </c>
       <c r="J39" s="45">
-        <v>0.56472407595172891</v>
+        <v>0.61780197420852734</v>
       </c>
       <c r="K39" t="s">
         <v>125</v>
@@ -15860,31 +15862,31 @@
         <v>2045</v>
       </c>
       <c r="B40" s="45">
-        <v>359.54120317318979</v>
+        <v>469.85279223650087</v>
       </c>
       <c r="C40" s="45">
-        <v>0.95970615583188035</v>
+        <v>0.98445038951198627</v>
       </c>
       <c r="D40" s="45">
-        <v>1.282863795823268</v>
+        <v>1.2780152323419569</v>
       </c>
       <c r="E40" s="45">
-        <v>119.04187173373275</v>
+        <v>127.78439420719175</v>
       </c>
       <c r="F40" s="45">
-        <v>1.0440210018372491</v>
+        <v>0.71002902131905987</v>
       </c>
       <c r="G40" s="45">
-        <v>7.4167970957536653</v>
+        <v>6.8179216884659919</v>
       </c>
       <c r="H40" s="45">
-        <v>1.3253722434009638</v>
+        <v>1.8092430227201508</v>
       </c>
       <c r="I40" s="45">
-        <v>15.574237991245891</v>
+        <v>14.692197148936758</v>
       </c>
       <c r="J40" s="45">
-        <v>0.16755080133772071</v>
+        <v>0.14479217450828424</v>
       </c>
       <c r="K40" t="s">
         <v>125</v>
@@ -15901,31 +15903,31 @@
         <v>2050</v>
       </c>
       <c r="B41" s="45">
-        <v>462.25644812391027</v>
+        <v>586.67447317324729</v>
       </c>
       <c r="C41" s="45">
-        <v>1.5042069527397188</v>
+        <v>1.4318635228584473</v>
       </c>
       <c r="D41" s="45">
-        <v>2.4759476866602741</v>
+        <v>2.2975636939884536</v>
       </c>
       <c r="E41" s="45">
-        <v>155.2333172131836</v>
+        <v>153.18552510787669</v>
       </c>
       <c r="F41" s="45">
-        <v>0.24923973612385511</v>
+        <v>0</v>
       </c>
       <c r="G41" s="45">
-        <v>0.37937298809939268</v>
+        <v>0.12537781876732937</v>
       </c>
       <c r="H41" s="45">
-        <v>9.59211023656871E-3</v>
+        <v>5.5786407304109579E-6</v>
       </c>
       <c r="I41" s="45">
-        <v>18.137276945654794</v>
+        <v>15.562830991629907</v>
       </c>
       <c r="J41" s="45">
-        <v>2.2163943053906607E-2</v>
+        <v>4.1153605524657529E-7</v>
       </c>
       <c r="K41" t="s">
         <v>125</v>
@@ -15942,31 +15944,31 @@
         <v>2055</v>
       </c>
       <c r="B42" s="45">
-        <v>528.61236413760889</v>
+        <v>606.76233784703197</v>
       </c>
       <c r="C42" s="45">
-        <v>2.0576926844133339</v>
+        <v>1.8973789928111968</v>
       </c>
       <c r="D42" s="45">
-        <v>3.5528577894833568</v>
+        <v>3.350763115056751</v>
       </c>
       <c r="E42" s="45">
-        <v>160.01845733047944</v>
+        <v>158.78190746832189</v>
       </c>
       <c r="F42" s="45">
-        <v>4.8922838135034244E-4</v>
+        <v>0</v>
       </c>
       <c r="G42" s="45">
-        <v>1.61208367369863E-4</v>
+        <v>1.0695021361267122E-4</v>
       </c>
       <c r="H42" s="45">
-        <v>8.9595805729570158E-4</v>
+        <v>0</v>
       </c>
       <c r="I42" s="45">
-        <v>16.268750949168915</v>
+        <v>13.326992441095889</v>
       </c>
       <c r="J42" s="45">
-        <v>3.7461951246575345E-4</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>125</v>
@@ -15983,31 +15985,31 @@
         <v>2060</v>
       </c>
       <c r="B43" s="45">
-        <v>550.95202717897416</v>
+        <v>650.15225901369865</v>
       </c>
       <c r="C43" s="45">
-        <v>2.7188450095453218</v>
+        <v>2.4875942489011948</v>
       </c>
       <c r="D43" s="45">
-        <v>4.7255657183365853</v>
+        <v>4.4751534710078271</v>
       </c>
       <c r="E43" s="45">
-        <v>158.42464378339039</v>
+        <v>158.3129988818493</v>
       </c>
       <c r="F43" s="45">
-        <v>4.3818100283732876E-5</v>
+        <v>0</v>
       </c>
       <c r="G43" s="45">
-        <v>1.1281937948047946E-5</v>
+        <v>7.5687104397602734E-6</v>
       </c>
       <c r="H43" s="45">
-        <v>1.5639489345772322E-4</v>
+        <v>0</v>
       </c>
       <c r="I43" s="45">
-        <v>18.302738723929224</v>
+        <v>15.107849734474884</v>
       </c>
       <c r="J43" s="45">
-        <v>3.881420996669816E-5</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>125</v>
@@ -16024,31 +16026,31 @@
         <v>2065</v>
       </c>
       <c r="B44" s="45">
-        <v>614.5394023936866</v>
+        <v>719.60710277968042</v>
       </c>
       <c r="C44" s="45">
-        <v>3.8672102704794518</v>
+        <v>3.5626132511429791</v>
       </c>
       <c r="D44" s="45">
-        <v>7.897360565107622</v>
+        <v>7.6522438534637862</v>
       </c>
       <c r="E44" s="45">
-        <v>154.40569157619862</v>
+        <v>154.55340636900684</v>
       </c>
       <c r="F44" s="45">
-        <v>4.0858989823766959E-6</v>
+        <v>0</v>
       </c>
       <c r="G44" s="45">
-        <v>9.7957210187328761E-7</v>
+        <v>0</v>
       </c>
       <c r="H44" s="45">
-        <v>2.0962907781058101E-5</v>
+        <v>0</v>
       </c>
       <c r="I44" s="45">
-        <v>21.76690306047945</v>
+        <v>18.707721773972604</v>
       </c>
       <c r="J44" s="45">
-        <v>3.9012778886868214E-6</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>125</v>
@@ -16065,16 +16067,16 @@
         <v>2070</v>
       </c>
       <c r="B45" s="45">
-        <v>600.8663860111302</v>
+        <v>722.15322311415514</v>
       </c>
       <c r="C45" s="45">
-        <v>4.8391927651583906</v>
+        <v>4.3941801513398966</v>
       </c>
       <c r="D45" s="45">
-        <v>16.739863265694627</v>
+        <v>16.096978891585128</v>
       </c>
       <c r="E45" s="45">
-        <v>139.75365252140409</v>
+        <v>140.1554420428082</v>
       </c>
       <c r="F45" s="45">
         <v>0</v>
@@ -16086,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="45">
-        <v>20.464712162009132</v>
+        <v>15.611154639726026</v>
       </c>
       <c r="J45" s="45">
         <v>0</v>
@@ -16105,7 +16107,18 @@
       <c r="P47" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M45"/>
+  <autoFilter ref="A1:M45">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="cumulative"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Net_Zero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>